--- a/Excel2Pdf/Templete/templete1.xlsx
+++ b/Excel2Pdf/Templete/templete1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="15825" windowHeight="7950"/>
+    <workbookView windowWidth="15180" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,10 +268,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -328,6 +328,103 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -337,60 +434,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,39 +450,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,23 +465,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,19 +488,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,13 +608,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,108 +662,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -642,38 +672,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -704,6 +704,67 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,46 +788,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,15 +810,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -813,10 +826,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -825,137 +838,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -975,6 +988,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1336,8 +1352,8 @@
   <sheetPr/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1"/>
@@ -1719,10 +1735,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1733,62 +1749,62 @@
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9">
         <f>SQRT(SUM(J1:J24)/(2*21))</f>
         <v>0</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" customHeight="1" spans="1:11">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" customHeight="1" spans="1:11">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" ht="84" customHeight="1" spans="1:11">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" customHeight="1" spans="1:1">
       <c r="A29" t="s">

--- a/Excel2Pdf/Templete/templete1.xlsx
+++ b/Excel2Pdf/Templete/templete1.xlsx
@@ -4,24 +4,33 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="15180" windowHeight="7950"/>
+    <workbookView windowWidth="19770" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
-  <si>
-    <t>山西省农村土地承包经营权调查成果界址点精度检查表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">县级行政区名称：                       调查比例尺/界址点精度等级：1:2000/同精度         </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+  <si>
+    <t>承包地块界址点精度检查表</t>
+  </si>
+  <si>
+    <t>承包方代码：</t>
+  </si>
+  <si>
+    <t>承包方代表：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地块编码：  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">地块名称：  </t>
   </si>
   <si>
     <t>序号</t>
@@ -260,7 +269,10 @@
 ∑[ ]为求和函数，对方括号内的系列值（从1到n）进行求和运算。</t>
   </si>
   <si>
-    <t>检查员：                                        检查日期：      年   月   日</t>
+    <t>检查员：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查日期: </t>
   </si>
 </sst>
 </file>
@@ -268,12 +280,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +300,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -328,17 +346,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,15 +362,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,6 +393,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -380,54 +438,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,24 +461,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,6 +471,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,37 +506,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,145 +632,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,6 +700,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -702,19 +729,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -724,8 +738,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,16 +754,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,25 +784,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,189 +823,222 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1350,25 +1388,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="6.55833333333333" customWidth="1"/>
+    <col min="2" max="2" width="8.85" customWidth="1"/>
     <col min="3" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="5.625" customWidth="1"/>
-    <col min="8" max="8" width="5.5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" customWidth="1"/>
-    <col min="10" max="10" width="5.625" customWidth="1"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="5.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="5.44166666666667" customWidth="1"/>
+    <col min="9" max="9" width="5.775" customWidth="1"/>
+    <col min="10" max="10" width="5.66666666666667" customWidth="1"/>
+    <col min="11" max="11" width="7.88333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" ht="36.6" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1378,458 +1416,496 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" customHeight="1" spans="1:11">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:11">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:11">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:11">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:11">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:11">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:11">
+      <c r="A9" s="9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:11">
+      <c r="A10" s="9">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:11">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:11">
+      <c r="A12" s="9">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:11">
+      <c r="A13" s="9">
+        <v>7</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:11">
+      <c r="A14" s="9">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:11">
+      <c r="A15" s="9">
         <v>9</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:11">
+      <c r="A16" s="9">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:11">
+      <c r="A17" s="9">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:11">
+      <c r="A18" s="9">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:11">
+      <c r="A19" s="9">
         <v>13</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:11">
+      <c r="A20" s="9">
         <v>14</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:11">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:11">
+      <c r="A21" s="9">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:11">
+      <c r="A22" s="9">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:11">
+      <c r="A23" s="9">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:11">
+      <c r="A24" s="9">
         <v>18</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:11">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" s="5">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:11">
-      <c r="A8" s="5">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:11">
-      <c r="A9" s="5">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:11">
-      <c r="A10" s="5">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:11">
-      <c r="A11" s="5">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:11">
-      <c r="A12" s="5">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:11">
-      <c r="A13" s="5">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:11">
-      <c r="A14" s="5">
-        <v>9</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:11">
-      <c r="A15" s="5">
-        <v>10</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:11">
-      <c r="A16" s="5">
-        <v>11</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:11">
-      <c r="A17" s="5">
-        <v>12</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:11">
-      <c r="A18" s="5">
-        <v>13</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:11">
-      <c r="A19" s="5">
-        <v>14</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:11">
-      <c r="A20" s="5">
-        <v>15</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:11">
-      <c r="A21" s="5">
-        <v>16</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:11">
-      <c r="A22" s="5">
-        <v>17</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:11">
-      <c r="A23" s="5">
-        <v>18</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:11">
-      <c r="A24" s="5">
-        <v>19</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" customHeight="1" spans="1:11">
-      <c r="A25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9">
+      <c r="A25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12">
         <f>SQRT(SUM(J1:J24)/(2*21))</f>
         <v>0</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
     </row>
     <row r="26" customHeight="1" spans="1:11">
-      <c r="A26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="A26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" customHeight="1" spans="1:11">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" ht="84" customHeight="1" spans="1:11">
-      <c r="A28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:1">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
+      <c r="A28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:11">
+      <c r="A29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="31" customHeight="1" spans="8:12">
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="24">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:K25"/>
     <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K4:K6"/>
     <mergeCell ref="A26:C27"/>
     <mergeCell ref="D26:K27"/>
   </mergeCells>

--- a/Excel2Pdf/Templete/templete1.xlsx
+++ b/Excel2Pdf/Templete/templete1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950"/>
+    <workbookView windowWidth="19100" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -280,9 +280,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -346,6 +346,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -362,6 +377,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -370,6 +421,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -378,8 +437,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,98 +482,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,19 +506,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,168 +686,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -702,6 +702,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -731,6 +742,69 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,6 +822,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -782,56 +891,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -840,10 +899,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,138 +911,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -995,34 +1060,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1386,501 +1469,501 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:L31"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.55833333333333" customWidth="1"/>
-    <col min="2" max="2" width="8.85" customWidth="1"/>
+    <col min="1" max="1" width="6.55454545454545" customWidth="1"/>
+    <col min="2" max="2" width="8.85454545454546" customWidth="1"/>
     <col min="3" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="5.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="5.44166666666667" customWidth="1"/>
-    <col min="9" max="9" width="5.775" customWidth="1"/>
-    <col min="10" max="10" width="5.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="7.88333333333333" customWidth="1"/>
+    <col min="7" max="7" width="5.66363636363636" customWidth="1"/>
+    <col min="8" max="8" width="5.44545454545455" customWidth="1"/>
+    <col min="9" max="9" width="5.77272727272727" customWidth="1"/>
+    <col min="10" max="10" width="5.66363636363636" customWidth="1"/>
+    <col min="11" max="11" width="7.88181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.6" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" customHeight="1" spans="1:11">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" customHeight="1" spans="1:11">
-      <c r="A8" s="9">
+      <c r="A8" s="11">
         <v>2</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" customHeight="1" spans="1:11">
-      <c r="A9" s="9">
+      <c r="A9" s="11">
         <v>3</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" customHeight="1" spans="1:11">
-      <c r="A10" s="9">
+      <c r="A10" s="11">
         <v>4</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" customHeight="1" spans="1:11">
-      <c r="A11" s="9">
+      <c r="A11" s="11">
         <v>5</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" customHeight="1" spans="1:11">
-      <c r="A12" s="9">
+      <c r="A12" s="11">
         <v>6</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" customHeight="1" spans="1:11">
-      <c r="A13" s="9">
+      <c r="A13" s="11">
         <v>7</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" customHeight="1" spans="1:11">
-      <c r="A14" s="9">
+      <c r="A14" s="11">
         <v>8</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" customHeight="1" spans="1:11">
-      <c r="A15" s="9">
+      <c r="A15" s="11">
         <v>9</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" customHeight="1" spans="1:11">
-      <c r="A16" s="9">
+      <c r="A16" s="11">
         <v>10</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" customHeight="1" spans="1:11">
-      <c r="A17" s="9">
+      <c r="A17" s="11">
         <v>11</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" customHeight="1" spans="1:11">
-      <c r="A18" s="9">
+      <c r="A18" s="11">
         <v>12</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" customHeight="1" spans="1:11">
-      <c r="A19" s="9">
+      <c r="A19" s="11">
         <v>13</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" customHeight="1" spans="1:11">
-      <c r="A20" s="9">
+      <c r="A20" s="11">
         <v>14</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" customHeight="1" spans="1:11">
-      <c r="A21" s="9">
+      <c r="A21" s="11">
         <v>15</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" customHeight="1" spans="1:11">
-      <c r="A22" s="9">
+      <c r="A22" s="13">
         <v>16</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:11">
-      <c r="A23" s="9">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A23" s="11">
         <v>17</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:11">
-      <c r="A24" s="9">
+      <c r="B23" s="11"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A24" s="16">
         <v>18</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
     </row>
     <row r="25" customHeight="1" spans="1:11">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19">
         <f>SQRT(SUM(J1:J24)/(2*21))</f>
         <v>0</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
     </row>
     <row r="26" customHeight="1" spans="1:11">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" customHeight="1" spans="1:11">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" ht="84" customHeight="1" spans="1:11">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" customHeight="1" spans="1:11">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="31" customHeight="1" spans="8:12">
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1916,7 +1999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1924,7 +2007,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1933,7 +2016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1941,7 +2024,7 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
